--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ucn3-Il10rb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ucn3-Il10rb.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.731807</v>
+        <v>19.42991633333333</v>
       </c>
       <c r="N2">
-        <v>65.195421</v>
+        <v>58.289749</v>
       </c>
       <c r="O2">
-        <v>0.08646812869881711</v>
+        <v>0.08673502554925175</v>
       </c>
       <c r="P2">
-        <v>0.08646812869881711</v>
+        <v>0.08673502554925173</v>
       </c>
       <c r="Q2">
-        <v>0.1376637534093333</v>
+        <v>0.1230820433328889</v>
       </c>
       <c r="R2">
-        <v>1.238973780684</v>
+        <v>1.107738389996</v>
       </c>
       <c r="S2">
-        <v>0.08646812869881711</v>
+        <v>0.08673502554925175</v>
       </c>
       <c r="T2">
-        <v>0.08646812869881711</v>
+        <v>0.08673502554925173</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>27.576131</v>
       </c>
       <c r="O3">
-        <v>0.03657398645103373</v>
+        <v>0.04103322570207864</v>
       </c>
       <c r="P3">
-        <v>0.03657398645103373</v>
+        <v>0.04103322570207864</v>
       </c>
       <c r="Q3">
         <v>0.05822853261377778</v>
@@ -638,10 +638,10 @@
         <v>0.524056793524</v>
       </c>
       <c r="S3">
-        <v>0.03657398645103373</v>
+        <v>0.04103322570207864</v>
       </c>
       <c r="T3">
-        <v>0.03657398645103373</v>
+        <v>0.04103322570207864</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>114.357188</v>
+        <v>105.042315</v>
       </c>
       <c r="N4">
-        <v>343.071564</v>
+        <v>315.126945</v>
       </c>
       <c r="O4">
-        <v>0.4550128781108181</v>
+        <v>0.4689082402093144</v>
       </c>
       <c r="P4">
-        <v>0.455012878110818</v>
+        <v>0.4689082402093144</v>
       </c>
       <c r="Q4">
-        <v>0.7244146669173332</v>
+        <v>0.6654080514199999</v>
       </c>
       <c r="R4">
-        <v>6.519732002255999</v>
+        <v>5.988672462779999</v>
       </c>
       <c r="S4">
-        <v>0.4550128781108181</v>
+        <v>0.4689082402093144</v>
       </c>
       <c r="T4">
-        <v>0.455012878110818</v>
+        <v>0.4689082402093144</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.221699</v>
+        <v>2.834125333333334</v>
       </c>
       <c r="N5">
-        <v>6.665096999999999</v>
+        <v>8.502376000000002</v>
       </c>
       <c r="O5">
-        <v>0.00883986108757699</v>
+        <v>0.01265151784388958</v>
       </c>
       <c r="P5">
-        <v>0.00883986108757699</v>
+        <v>0.01265151784388958</v>
       </c>
       <c r="Q5">
-        <v>0.01407372259866666</v>
+        <v>0.01795323927822223</v>
       </c>
       <c r="R5">
-        <v>0.126663503388</v>
+        <v>0.161579153504</v>
       </c>
       <c r="S5">
-        <v>0.00883986108757699</v>
+        <v>0.01265151784388958</v>
       </c>
       <c r="T5">
-        <v>0.00883986108757699</v>
+        <v>0.01265151784388958</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>103.824628</v>
+        <v>87.516249</v>
       </c>
       <c r="N6">
-        <v>311.473884</v>
+        <v>262.548747</v>
       </c>
       <c r="O6">
-        <v>0.4131051456517542</v>
+        <v>0.3906719906954657</v>
       </c>
       <c r="P6">
-        <v>0.4131051456517542</v>
+        <v>0.3906719906954657</v>
       </c>
       <c r="Q6">
-        <v>0.6576944101706667</v>
+        <v>0.554386265332</v>
       </c>
       <c r="R6">
-        <v>5.919249691536</v>
+        <v>4.989476387988</v>
       </c>
       <c r="S6">
-        <v>0.4131051456517542</v>
+        <v>0.3906719906954657</v>
       </c>
       <c r="T6">
-        <v>0.4131051456517542</v>
+        <v>0.3906719906954657</v>
       </c>
     </row>
   </sheetData>
